--- a/outputs/mvp/ind_8_5_2/ind_8_5_2.xlsx
+++ b/outputs/mvp/ind_8_5_2/ind_8_5_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I66"/>
+  <dimension ref="A1:I108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -425,6 +425,21 @@
       <c r="F2">
         <v>0.08882965717775745</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -452,6 +467,16 @@
           <t>Feminino</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -479,6 +504,16 @@
           <t>Masculino</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -487,28 +522,33 @@
         </is>
       </c>
       <c r="B5">
-        <v>18080.95084162</v>
+        <v>38443.03307423</v>
       </c>
       <c r="C5">
-        <v>201675.52950542</v>
+        <v>501496.29266603</v>
       </c>
       <c r="D5">
-        <v>4440.526675943051</v>
+        <v>7705.118955735077</v>
       </c>
       <c r="E5">
-        <v>19678.11682843997</v>
+        <v>41211.43144466445</v>
       </c>
       <c r="F5">
-        <v>0.08227721345494118</v>
+        <v>0.0711988018681995</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -519,28 +559,33 @@
         </is>
       </c>
       <c r="B6">
-        <v>20362.08223261</v>
+        <v>3429462.43450958</v>
       </c>
       <c r="C6">
-        <v>299820.76316061</v>
+        <v>43384160.00424587</v>
       </c>
       <c r="D6">
-        <v>5227.480795597658</v>
+        <v>69216.53874886644</v>
       </c>
       <c r="E6">
-        <v>28015.52847955999</v>
+        <v>245050.152424956</v>
       </c>
       <c r="F6">
-        <v>0.06359516921527482</v>
+        <v>0.07325778813626782</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -551,28 +596,30 @@
         </is>
       </c>
       <c r="B7">
-        <v>1777208.90176876</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>19198193.50946843</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>42402.19907291346</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>131837.6207759168</v>
-      </c>
-      <c r="F7">
-        <v>0.08472823867334497</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -583,28 +630,33 @@
         </is>
       </c>
       <c r="B8">
-        <v>1652253.53274082</v>
+        <v>12586.14001389</v>
       </c>
       <c r="C8">
-        <v>24185966.49477744</v>
+        <v>172659.1307852</v>
       </c>
       <c r="D8">
-        <v>44443.9077072242</v>
+        <v>2888.701645932214</v>
       </c>
       <c r="E8">
-        <v>153909.1982072246</v>
+        <v>14370.09147773781</v>
       </c>
       <c r="F8">
-        <v>0.06394610507152329</v>
+        <v>0.06794311109588569</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -615,25 +667,33 @@
         </is>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>5527575.1015218</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>48341942.46240385</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>82371.2022807443</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>237354.0315447495</v>
+      </c>
+      <c r="F9">
+        <v>0.1026104437442262</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -644,25 +704,33 @@
         </is>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>8206041.37298303</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>80241682.5185101</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>107215.3537979541</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>196112.3884440458</v>
+      </c>
+      <c r="F10">
+        <v>0.09277843467232834</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -673,28 +741,33 @@
         </is>
       </c>
       <c r="B11">
-        <v>5534.160547429999</v>
+        <v>802025.33613647</v>
       </c>
       <c r="C11">
-        <v>70313.22931721</v>
+        <v>12158575.37159084</v>
       </c>
       <c r="D11">
-        <v>1861.344692382785</v>
+        <v>26463.88616358255</v>
       </c>
       <c r="E11">
-        <v>7672.588276779506</v>
+        <v>126883.2068029128</v>
       </c>
       <c r="F11">
-        <v>0.07296441653834711</v>
+        <v>0.06188180272063239</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -705,28 +778,33 @@
         </is>
       </c>
       <c r="B12">
-        <v>7051.97946646</v>
+        <v>18080.95084162</v>
       </c>
       <c r="C12">
-        <v>102345.90146799</v>
+        <v>201675.52950542</v>
       </c>
       <c r="D12">
-        <v>2080.709533425331</v>
+        <v>4440.526675943051</v>
       </c>
       <c r="E12">
-        <v>10375.59150528211</v>
+        <v>19678.11682843997</v>
       </c>
       <c r="F12">
-        <v>0.0644617556229034</v>
+        <v>0.08227721345494118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -737,28 +815,33 @@
         </is>
       </c>
       <c r="B13">
-        <v>2860860.15608718</v>
+        <v>20362.08223261</v>
       </c>
       <c r="C13">
-        <v>19382057.32747401</v>
+        <v>299820.76316061</v>
       </c>
       <c r="D13">
-        <v>56156.76093191085</v>
+        <v>5227.480795597658</v>
       </c>
       <c r="E13">
-        <v>129082.9269596575</v>
+        <v>28015.52847955999</v>
       </c>
       <c r="F13">
-        <v>0.1286189259210948</v>
+        <v>0.06359516921527482</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -769,28 +852,33 @@
         </is>
       </c>
       <c r="B14">
-        <v>2666714.94543462</v>
+        <v>1777208.90176876</v>
       </c>
       <c r="C14">
-        <v>28959885.13492984</v>
+        <v>19198193.50946843</v>
       </c>
       <c r="D14">
-        <v>55157.63849027632</v>
+        <v>42402.19907291346</v>
       </c>
       <c r="E14">
-        <v>149698.2571945809</v>
+        <v>131837.6207759168</v>
       </c>
       <c r="F14">
-        <v>0.0843187360847638</v>
+        <v>0.08472823867334497</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -801,33 +889,33 @@
         </is>
       </c>
       <c r="B15">
-        <v>17813.85963249</v>
+        <v>1652253.53274082</v>
       </c>
       <c r="C15">
-        <v>192025.97303543</v>
+        <v>24185966.49477744</v>
       </c>
       <c r="D15">
-        <v>4442.167508680713</v>
+        <v>44443.9077072242</v>
       </c>
       <c r="E15">
-        <v>19354.66962456063</v>
+        <v>153909.1982072246</v>
       </c>
       <c r="F15">
-        <v>0.08489265077084364</v>
+        <v>0.06394610507152329</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -838,33 +926,30 @@
         </is>
       </c>
       <c r="B16">
-        <v>19474.19401066</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>281412.31239298</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>5204.197321181967</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>27540.01102810744</v>
-      </c>
-      <c r="F16">
-        <v>0.06472272300750943</v>
+        <v>0</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -875,33 +960,30 @@
         </is>
       </c>
       <c r="B17">
-        <v>1677099.17295615</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>17589864.69029009</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>42798.59208582404</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>130066.3540635348</v>
-      </c>
-      <c r="F17">
-        <v>0.08704532716518938</v>
+        <v>0</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -912,33 +994,33 @@
         </is>
       </c>
       <c r="B18">
-        <v>1547363.67410245</v>
+        <v>5534.160547429999</v>
       </c>
       <c r="C18">
-        <v>21273017.84892034</v>
+        <v>70313.22931721</v>
       </c>
       <c r="D18">
-        <v>44382.34623660941</v>
+        <v>1861.344692382785</v>
       </c>
       <c r="E18">
-        <v>158794.7028653644</v>
+        <v>7672.588276779506</v>
       </c>
       <c r="F18">
-        <v>0.06780621404341385</v>
+        <v>0.07296441653834711</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -949,30 +1031,33 @@
         </is>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>7051.97946646</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>102345.90146799</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2080.709533425331</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>10375.59150528211</v>
+      </c>
+      <c r="F19">
+        <v>0.0644617556229034</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -983,30 +1068,33 @@
         </is>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>2860860.15608718</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>19382057.32747401</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>56156.76093191085</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>129082.9269596575</v>
+      </c>
+      <c r="F20">
+        <v>0.1286189259210948</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1017,33 +1105,33 @@
         </is>
       </c>
       <c r="B21">
-        <v>5408.670944949999</v>
+        <v>2666714.94543462</v>
       </c>
       <c r="C21">
-        <v>62457.33618054</v>
+        <v>28959885.13492984</v>
       </c>
       <c r="D21">
-        <v>1860.625143759909</v>
+        <v>55157.63849027632</v>
       </c>
       <c r="E21">
-        <v>7461.442909530685</v>
+        <v>149698.2571945809</v>
       </c>
       <c r="F21">
-        <v>0.07969631887947834</v>
+        <v>0.0843187360847638</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -1054,28 +1142,28 @@
         </is>
       </c>
       <c r="B22">
-        <v>6694.7729195</v>
+        <v>4295235.02244861</v>
       </c>
       <c r="C22">
-        <v>87691.93390307001</v>
+        <v>34897128.03241762</v>
       </c>
       <c r="D22">
-        <v>2072.468402506699</v>
+        <v>70151.46641197408</v>
       </c>
       <c r="E22">
-        <v>9750.138376430428</v>
+        <v>119515.7619296159</v>
       </c>
       <c r="F22">
-        <v>0.07092919273139772</v>
+        <v>0.1095936730437922</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1091,28 +1179,28 @@
         </is>
       </c>
       <c r="B23">
-        <v>2594913.31891502</v>
+        <v>3910806.35053442</v>
       </c>
       <c r="C23">
-        <v>17052780.03291156</v>
+        <v>45344554.48609249</v>
       </c>
       <c r="D23">
-        <v>54085.45236510952</v>
+        <v>67475.39558758574</v>
       </c>
       <c r="E23">
-        <v>128073.7425618128</v>
+        <v>128392.1306332108</v>
       </c>
       <c r="F23">
-        <v>0.1320721609630466</v>
+        <v>0.07939859304870416</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1128,33 +1216,33 @@
         </is>
       </c>
       <c r="B24">
-        <v>2337273.70950181</v>
+        <v>366449.14679638</v>
       </c>
       <c r="C24">
-        <v>23702432.3908761</v>
+        <v>3955111.56334745</v>
       </c>
       <c r="D24">
-        <v>50766.7943884073</v>
+        <v>16247.47514796513</v>
       </c>
       <c r="E24">
-        <v>152117.700375756</v>
+        <v>55229.96062419943</v>
       </c>
       <c r="F24">
-        <v>0.08975806794792855</v>
+        <v>0.08479555683117636</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -1165,28 +1253,28 @@
         </is>
       </c>
       <c r="B25">
-        <v>267.09120913</v>
+        <v>435576.18934009</v>
       </c>
       <c r="C25">
-        <v>9649.556469990001</v>
+        <v>8203463.80824339</v>
       </c>
       <c r="D25">
-        <v>262.9083165880297</v>
+        <v>15761.6027128363</v>
       </c>
       <c r="E25">
-        <v>2072.349409346059</v>
+        <v>82512.3947697629</v>
       </c>
       <c r="F25">
-        <v>0.02693361887731213</v>
+        <v>0.05041951298546247</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1202,23 +1290,23 @@
         </is>
       </c>
       <c r="B26">
-        <v>887.88822195</v>
+        <v>37288.05364315</v>
       </c>
       <c r="C26">
-        <v>18408.45076763</v>
+        <v>473438.28542841</v>
       </c>
       <c r="D26">
-        <v>540.3000116970813</v>
+        <v>7681.690604623191</v>
       </c>
       <c r="E26">
-        <v>3955.695497985987</v>
+        <v>40488.89300625009</v>
       </c>
       <c r="F26">
-        <v>0.04601329933255518</v>
+        <v>0.07300985046303909</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1228,7 +1316,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1239,23 +1327,23 @@
         </is>
       </c>
       <c r="B27">
-        <v>100109.72881261</v>
+        <v>3224462.8470586</v>
       </c>
       <c r="C27">
-        <v>1608328.81917834</v>
+        <v>38862882.53921043</v>
       </c>
       <c r="D27">
-        <v>6918.975030064087</v>
+        <v>69983.07468271255</v>
       </c>
       <c r="E27">
-        <v>37763.1338532638</v>
+        <v>251240.9651421214</v>
       </c>
       <c r="F27">
-        <v>0.05859720791850238</v>
+        <v>0.07661359530911585</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1265,7 +1353,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1276,33 +1364,30 @@
         </is>
       </c>
       <c r="B28">
-        <v>104889.85863837</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>2912948.6458571</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>7183.0504211275</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>48178.68325941957</v>
-      </c>
-      <c r="F28">
-        <v>0.03475661752016308</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1313,30 +1398,33 @@
         </is>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>12103.44386445</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>150149.27008361</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>2882.659245645607</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>13598.08045060925</v>
+      </c>
+      <c r="F29">
+        <v>0.07459624908538991</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1347,33 +1435,33 @@
         </is>
       </c>
       <c r="B30">
-        <v>125.48960248</v>
+        <v>4932187.02841683</v>
       </c>
       <c r="C30">
-        <v>7855.89313667</v>
+        <v>40755212.42378766</v>
       </c>
       <c r="D30">
-        <v>129.6176120320786</v>
+        <v>76909.87961388277</v>
       </c>
       <c r="E30">
-        <v>1880.641345129502</v>
+        <v>242096.6723174424</v>
       </c>
       <c r="F30">
-        <v>0.01572278971968764</v>
+        <v>0.1079550836238031</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -1384,28 +1472,28 @@
         </is>
       </c>
       <c r="B31">
-        <v>357.20654696</v>
+        <v>1154.97943108</v>
       </c>
       <c r="C31">
-        <v>14653.96756492</v>
+        <v>28058.00723762</v>
       </c>
       <c r="D31">
-        <v>366.4003632698379</v>
+        <v>592.8734643236728</v>
       </c>
       <c r="E31">
-        <v>2805.30610104606</v>
+        <v>5466.418684557984</v>
       </c>
       <c r="F31">
-        <v>0.02379604315409965</v>
+        <v>0.03953650628668833</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -1421,28 +1509,28 @@
         </is>
       </c>
       <c r="B32">
-        <v>265946.83717216</v>
+        <v>204999.58745098</v>
       </c>
       <c r="C32">
-        <v>2329277.29456245</v>
+        <v>4521277.46503544</v>
       </c>
       <c r="D32">
-        <v>13299.13412618734</v>
+        <v>10488.10210269128</v>
       </c>
       <c r="E32">
-        <v>36786.19545285107</v>
+        <v>79935.79528568432</v>
       </c>
       <c r="F32">
-        <v>0.1024754794470892</v>
+        <v>0.04337443302083464</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -1458,28 +1546,25 @@
         </is>
       </c>
       <c r="B33">
-        <v>329441.23593281</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>5257452.74405374</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>13541.43063137199</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>60965.44922438833</v>
-      </c>
-      <c r="F33">
-        <v>0.05896679570311143</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -1491,423 +1576,502 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B34">
-        <v>9515789.14879315</v>
+        <v>482.69614944</v>
       </c>
       <c r="C34">
-        <v>99576890.5959601</v>
+        <v>22509.86070159</v>
       </c>
       <c r="D34">
-        <v>127142.7150588378</v>
+        <v>373.9517710210845</v>
       </c>
       <c r="E34">
-        <v>234718.3581661489</v>
+        <v>4153.889251229064</v>
       </c>
       <c r="F34">
-        <v>0.08722665142205205</v>
+        <v>0.02099358294805637</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B35">
-        <v>5231561.59329278</v>
+        <v>595388.07310497</v>
       </c>
       <c r="C35">
-        <v>42588818.83037818</v>
+        <v>7586730.03861619</v>
       </c>
       <c r="D35">
-        <v>81023.68610252971</v>
+        <v>22406.03438701046</v>
       </c>
       <c r="E35">
-        <v>186173.1808678097</v>
+        <v>86708.55530418195</v>
       </c>
       <c r="F35">
-        <v>0.1094002504150546</v>
+        <v>0.07276698588010562</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B36">
-        <v>4284227.55550037</v>
+        <v>17813.85963249</v>
       </c>
       <c r="C36">
-        <v>56988071.76558192</v>
+        <v>192025.97303543</v>
       </c>
       <c r="D36">
-        <v>77806.49162860277</v>
+        <v>4442.167508680713</v>
       </c>
       <c r="E36">
-        <v>117890.3257261291</v>
+        <v>19354.66962456063</v>
       </c>
       <c r="F36">
-        <v>0.0699211161156192</v>
+        <v>0.08489265077084364</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B37">
-        <v>39275.40550341</v>
+        <v>19474.19401066</v>
       </c>
       <c r="C37">
-        <v>434400.94044594</v>
+        <v>281412.31239298</v>
       </c>
       <c r="D37">
-        <v>6460.765061102768</v>
+        <v>5204.197321181967</v>
       </c>
       <c r="E37">
-        <v>35937.47653849469</v>
+        <v>27540.01102810744</v>
       </c>
       <c r="F37">
-        <v>0.08291612160766351</v>
+        <v>0.06472272300750943</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
           <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B38">
-        <v>29966.01686748</v>
+        <v>1677099.17295615</v>
       </c>
       <c r="C38">
-        <v>447686.62389775</v>
+        <v>17589864.69029009</v>
       </c>
       <c r="D38">
-        <v>6294.62907262571</v>
+        <v>42798.59208582404</v>
       </c>
       <c r="E38">
-        <v>30871.67318965385</v>
+        <v>130066.3540635348</v>
       </c>
       <c r="F38">
-        <v>0.06273600166738852</v>
+        <v>0.08704532716518938</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B39">
-        <v>1795152.07318091</v>
+        <v>1547363.67410245</v>
       </c>
       <c r="C39">
-        <v>19533019.39134211</v>
+        <v>21273017.84892034</v>
       </c>
       <c r="D39">
-        <v>50645.48417732997</v>
+        <v>44382.34623660941</v>
       </c>
       <c r="E39">
-        <v>178159.9765246566</v>
+        <v>158794.7028653644</v>
       </c>
       <c r="F39">
-        <v>0.08416811896729828</v>
+        <v>0.06780621404341385</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
           <t>Branca</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B40">
-        <v>1489229.4695158</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>24599275.71834131</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>46471.48113925292</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>173842.8239229247</v>
-      </c>
-      <c r="F40">
-        <v>0.05708374085798375</v>
+        <v>0</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>26775.08099153</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41">
-        <v>6527.39705757136</v>
-      </c>
-      <c r="F41">
         <v>0</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
           <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B42">
-        <v>2434.06457374</v>
+        <v>5408.670944949999</v>
       </c>
       <c r="C42">
-        <v>17003.40538398</v>
+        <v>62457.33618054</v>
       </c>
       <c r="D42">
-        <v>2453.09099491235</v>
+        <v>1860.625143759909</v>
       </c>
       <c r="E42">
-        <v>5165.733113724</v>
+        <v>7461.442909530685</v>
       </c>
       <c r="F42">
-        <v>0.1252253806197272</v>
+        <v>0.07969631887947834</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B43">
-        <v>23709.61649762</v>
+        <v>6694.7729195</v>
       </c>
       <c r="C43">
-        <v>181726.45410121</v>
+        <v>87691.93390307001</v>
       </c>
       <c r="D43">
-        <v>5655.864883740274</v>
+        <v>2072.468402506699</v>
       </c>
       <c r="E43">
-        <v>14957.59965031264</v>
+        <v>9750.138376430428</v>
       </c>
       <c r="F43">
-        <v>0.1154111662499596</v>
+        <v>0.07092919273139772</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
           <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B44">
-        <v>16318.03657633</v>
+        <v>2594913.31891502</v>
       </c>
       <c r="C44">
-        <v>245968.72306256</v>
+        <v>17052780.03291156</v>
       </c>
       <c r="D44">
-        <v>3535.562604464341</v>
+        <v>54085.45236510952</v>
       </c>
       <c r="E44">
-        <v>15549.6218327998</v>
+        <v>128073.7425618128</v>
       </c>
       <c r="F44">
-        <v>0.06221448844309287</v>
+        <v>0.1320721609630466</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B45">
-        <v>3373424.49811084</v>
+        <v>2337273.70950181</v>
       </c>
       <c r="C45">
-        <v>22412896.96349739</v>
+        <v>23702432.3908761</v>
       </c>
       <c r="D45">
-        <v>67540.96727450041</v>
+        <v>50766.7943884073</v>
       </c>
       <c r="E45">
-        <v>164454.5768179393</v>
+        <v>152117.700375756</v>
       </c>
       <c r="F45">
-        <v>0.1308222463267333</v>
+        <v>0.08975806794792855</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
           <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B46">
-        <v>2746279.96796702</v>
+        <v>267.09120913</v>
       </c>
       <c r="C46">
-        <v>31678137.29489632</v>
+        <v>9649.556469990001</v>
       </c>
       <c r="D46">
-        <v>64238.4611395629</v>
+        <v>262.9083165880297</v>
       </c>
       <c r="E46">
-        <v>167910.9430944553</v>
+        <v>2072.349409346059</v>
       </c>
       <c r="F46">
-        <v>0.07977709388648606</v>
+        <v>0.02693361887731213</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B47">
-        <v>35754.16070988</v>
+        <v>887.88822195</v>
       </c>
       <c r="C47">
-        <v>404590.69315864</v>
+        <v>18408.45076763</v>
       </c>
       <c r="D47">
-        <v>6390.477240333429</v>
+        <v>540.3000116970813</v>
       </c>
       <c r="E47">
-        <v>35610.315640414</v>
+        <v>3955.695497985987</v>
       </c>
       <c r="F47">
-        <v>0.08119581822240536</v>
+        <v>0.04601329933255518</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -1917,71 +2081,71 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B48">
-        <v>26334.38445877</v>
+        <v>100109.72881261</v>
       </c>
       <c r="C48">
-        <v>401741.1950082</v>
+        <v>1608328.81917834</v>
       </c>
       <c r="D48">
-        <v>6184.470492965663</v>
+        <v>6918.975030064087</v>
       </c>
       <c r="E48">
-        <v>30410.91743963545</v>
+        <v>37763.1338532638</v>
       </c>
       <c r="F48">
-        <v>0.06151807232629569</v>
+        <v>0.05859720791850238</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Branca</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B49">
-        <v>1696110.23503477</v>
+        <v>104889.85863837</v>
       </c>
       <c r="C49">
-        <v>18139642.06272992</v>
+        <v>2912948.6458571</v>
       </c>
       <c r="D49">
-        <v>51279.24044476238</v>
+        <v>7183.0504211275</v>
       </c>
       <c r="E49">
-        <v>176381.8443949721</v>
+        <v>48178.68325941957</v>
       </c>
       <c r="F49">
-        <v>0.08550773419498217</v>
+        <v>0.03475661752016308</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -1991,67 +2155,64 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B50">
-        <v>1401534.57359783</v>
+        <v>0</v>
       </c>
       <c r="C50">
-        <v>21893929.15040646</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>46657.45224225378</v>
+        <v>0</v>
       </c>
       <c r="E50">
-        <v>172547.7171695393</v>
-      </c>
-      <c r="F50">
-        <v>0.06016341164969598</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>125.48960248</v>
       </c>
       <c r="C51">
-        <v>26775.08099153</v>
+        <v>7855.89313667</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>129.6176120320786</v>
       </c>
       <c r="E51">
-        <v>6527.39705757136</v>
+        <v>1880.641345129502</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>0.01572278971968764</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2060,35 +2221,35 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B52">
-        <v>2434.06457374</v>
+        <v>357.20654696</v>
       </c>
       <c r="C52">
-        <v>16468.60575929</v>
+        <v>14653.96756492</v>
       </c>
       <c r="D52">
-        <v>2453.09099491235</v>
+        <v>366.4003632698379</v>
       </c>
       <c r="E52">
-        <v>5189.326215795262</v>
+        <v>2805.30610104606</v>
       </c>
       <c r="F52">
-        <v>0.1287682920379129</v>
+        <v>0.02379604315409965</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2097,35 +2258,35 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B53">
-        <v>21236.45933504</v>
+        <v>265946.83717216</v>
       </c>
       <c r="C53">
-        <v>165557.83995666</v>
+        <v>2329277.29456245</v>
       </c>
       <c r="D53">
-        <v>5465.838907287558</v>
+        <v>13299.13412618734</v>
       </c>
       <c r="E53">
-        <v>14942.46690345785</v>
+        <v>36786.19545285107</v>
       </c>
       <c r="F53">
-        <v>0.1136890120071433</v>
+        <v>0.1024754794470892</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2134,35 +2295,35 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="B54">
-        <v>14375.11074367</v>
+        <v>329441.23593281</v>
       </c>
       <c r="C54">
-        <v>201838.53672599</v>
+        <v>5257452.74405374</v>
       </c>
       <c r="D54">
-        <v>3412.711971343313</v>
+        <v>13541.43063137199</v>
       </c>
       <c r="E54">
-        <v>15228.09473461038</v>
+        <v>60965.44922438833</v>
       </c>
       <c r="F54">
-        <v>0.06648567706942354</v>
+        <v>0.05896679570311143</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2171,12 +2332,12 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Rural</t>
         </is>
       </c>
     </row>
@@ -2187,33 +2348,33 @@
         </is>
       </c>
       <c r="B55">
-        <v>3105752.81141687</v>
+        <v>9515789.14879315</v>
       </c>
       <c r="C55">
-        <v>20375832.23890115</v>
+        <v>99576890.5959601</v>
       </c>
       <c r="D55">
-        <v>67886.81333203166</v>
+        <v>127142.7150588378</v>
       </c>
       <c r="E55">
-        <v>161360.5298644421</v>
+        <v>234718.3581661489</v>
       </c>
       <c r="F55">
-        <v>0.132263337622296</v>
+        <v>0.08722665142205205</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2224,33 +2385,33 @@
         </is>
       </c>
       <c r="B56">
-        <v>2432008.80607067</v>
+        <v>5231561.59329278</v>
       </c>
       <c r="C56">
-        <v>27041882.04928404</v>
+        <v>42588818.83037818</v>
       </c>
       <c r="D56">
-        <v>63018.50047209661</v>
+        <v>81023.68610252971</v>
       </c>
       <c r="E56">
-        <v>172034.1375831014</v>
+        <v>186173.1808678097</v>
       </c>
       <c r="F56">
-        <v>0.08251400597247008</v>
+        <v>0.1094002504150546</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Feminino</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Urbana</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2261,33 +2422,33 @@
         </is>
       </c>
       <c r="B57">
-        <v>3521.24479353</v>
+        <v>4284227.55550037</v>
       </c>
       <c r="C57">
-        <v>29810.2472873</v>
+        <v>56988071.76558192</v>
       </c>
       <c r="D57">
-        <v>1711.514799676896</v>
+        <v>77806.49162860277</v>
       </c>
       <c r="E57">
-        <v>4578.173192011781</v>
+        <v>117890.3257261291</v>
       </c>
       <c r="F57">
-        <v>0.1056431792789492</v>
+        <v>0.0699211161156192</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Masculino</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Amarela</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2298,23 +2459,23 @@
         </is>
       </c>
       <c r="B58">
-        <v>3631.63240871</v>
+        <v>69241.42237089</v>
       </c>
       <c r="C58">
-        <v>45945.42888955</v>
+        <v>882087.5643436899</v>
       </c>
       <c r="D58">
-        <v>1487.434271290472</v>
+        <v>8762.430521480746</v>
       </c>
       <c r="E58">
-        <v>5874.152379925205</v>
+        <v>55207.9418447725</v>
       </c>
       <c r="F58">
-        <v>0.07325227259562195</v>
+        <v>0.0727838879481804</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2324,7 +2485,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2335,23 +2496,23 @@
         </is>
       </c>
       <c r="B59">
-        <v>99041.83814614</v>
+        <v>3284381.54269671</v>
       </c>
       <c r="C59">
-        <v>1393377.32861219</v>
+        <v>44132295.10968342</v>
       </c>
       <c r="D59">
-        <v>7331.323859591195</v>
+        <v>70137.17890722146</v>
       </c>
       <c r="E59">
-        <v>33985.6702426862</v>
+        <v>301306.9036576877</v>
       </c>
       <c r="F59">
-        <v>0.06636328476085433</v>
+        <v>0.06926637998641449</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2361,7 +2522,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2372,33 +2533,33 @@
         </is>
       </c>
       <c r="B60">
-        <v>87694.89591797</v>
+        <v>2434.06457374</v>
       </c>
       <c r="C60">
-        <v>2705346.56793485</v>
+        <v>43778.48637551</v>
       </c>
       <c r="D60">
-        <v>6296.670605963446</v>
+        <v>2453.09099491235</v>
       </c>
       <c r="E60">
-        <v>56628.78958789522</v>
+        <v>9617.201737325011</v>
       </c>
       <c r="F60">
-        <v>0.03139763481957069</v>
+        <v>0.05267107146742574</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Branca</t>
+          <t>Ignorado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2409,30 +2570,33 @@
         </is>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>40027.65307395</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>427695.17716377</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>6270.863956400641</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>23307.26741883023</v>
+      </c>
+      <c r="F61">
+        <v>0.08557985731337073</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Indígena</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2443,33 +2607,33 @@
         </is>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>6119704.46607786</v>
       </c>
       <c r="C62">
-        <v>534.79962469</v>
+        <v>54091034.25839371</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>103650.0096042039</v>
       </c>
       <c r="E62">
-        <v>431.0022657188362</v>
+        <v>277023.3325647632</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>0.1016380897447886</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Ignorado</t>
+          <t>Preto ou pardo</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2480,33 +2644,33 @@
         </is>
       </c>
       <c r="B63">
-        <v>2473.15716258</v>
+        <v>8735540.60594124</v>
       </c>
       <c r="C63">
-        <v>16168.61414455</v>
+        <v>88668257.45292188</v>
       </c>
       <c r="D63">
-        <v>1408.281951658327</v>
+        <v>131122.6576982941</v>
       </c>
       <c r="E63">
-        <v>2747.723956875298</v>
+        <v>262483.0848986514</v>
       </c>
       <c r="F63">
-        <v>0.132667498266867</v>
+        <v>0.08968377804592562</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Feminino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Urbana</t>
         </is>
       </c>
     </row>
@@ -2517,28 +2681,28 @@
         </is>
       </c>
       <c r="B64">
-        <v>1942.92583266</v>
+        <v>780248.54285191</v>
       </c>
       <c r="C64">
-        <v>44130.18633657</v>
+        <v>10908633.14303822</v>
       </c>
       <c r="D64">
-        <v>661.2477470014595</v>
+        <v>26994.81818671205</v>
       </c>
       <c r="E64">
-        <v>4795.476146524851</v>
+        <v>146619.5948197412</v>
       </c>
       <c r="F64">
-        <v>0.0421704925320323</v>
+        <v>0.06675134232847636</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Masculino</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Indígena</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
@@ -2554,19 +2718,19 @@
         </is>
       </c>
       <c r="B65">
-        <v>267671.68669397</v>
+        <v>39275.40550341</v>
       </c>
       <c r="C65">
-        <v>2037064.72459624</v>
+        <v>434400.94044594</v>
       </c>
       <c r="D65">
-        <v>13416.59358551995</v>
+        <v>6460.765061102768</v>
       </c>
       <c r="E65">
-        <v>40385.99303459516</v>
+        <v>35937.47653849469</v>
       </c>
       <c r="F65">
-        <v>0.1161398263952125</v>
+        <v>0.08291612160766351</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2575,12 +2739,12 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Preto ou pardo</t>
+          <t>Amarela</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Rural</t>
+          <t>Total</t>
         </is>
       </c>
     </row>
@@ -2591,31 +2755,1582 @@
         </is>
       </c>
       <c r="B66">
+        <v>29966.01686748</v>
+      </c>
+      <c r="C66">
+        <v>447686.62389775</v>
+      </c>
+      <c r="D66">
+        <v>6294.62907262571</v>
+      </c>
+      <c r="E66">
+        <v>30871.67318965385</v>
+      </c>
+      <c r="F66">
+        <v>0.06273600166738852</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B67">
+        <v>1795152.07318091</v>
+      </c>
+      <c r="C67">
+        <v>19533019.39134211</v>
+      </c>
+      <c r="D67">
+        <v>50645.48417732997</v>
+      </c>
+      <c r="E67">
+        <v>178159.9765246566</v>
+      </c>
+      <c r="F67">
+        <v>0.08416811896729828</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B68">
+        <v>1489229.4695158</v>
+      </c>
+      <c r="C68">
+        <v>24599275.71834131</v>
+      </c>
+      <c r="D68">
+        <v>46471.48113925292</v>
+      </c>
+      <c r="E68">
+        <v>173842.8239229247</v>
+      </c>
+      <c r="F68">
+        <v>0.05708374085798375</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>26775.08099153</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>6527.39705757136</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B70">
+        <v>2434.06457374</v>
+      </c>
+      <c r="C70">
+        <v>17003.40538398</v>
+      </c>
+      <c r="D70">
+        <v>2453.09099491235</v>
+      </c>
+      <c r="E70">
+        <v>5165.733113724</v>
+      </c>
+      <c r="F70">
+        <v>0.1252253806197272</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B71">
+        <v>23709.61649762</v>
+      </c>
+      <c r="C71">
+        <v>181726.45410121</v>
+      </c>
+      <c r="D71">
+        <v>5655.864883740274</v>
+      </c>
+      <c r="E71">
+        <v>14957.59965031264</v>
+      </c>
+      <c r="F71">
+        <v>0.1154111662499596</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B72">
+        <v>16318.03657633</v>
+      </c>
+      <c r="C72">
+        <v>245968.72306256</v>
+      </c>
+      <c r="D72">
+        <v>3535.562604464341</v>
+      </c>
+      <c r="E72">
+        <v>15549.6218327998</v>
+      </c>
+      <c r="F72">
+        <v>0.06221448844309287</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B73">
+        <v>3373424.49811084</v>
+      </c>
+      <c r="C73">
+        <v>22412896.96349739</v>
+      </c>
+      <c r="D73">
+        <v>67540.96727450041</v>
+      </c>
+      <c r="E73">
+        <v>164454.5768179393</v>
+      </c>
+      <c r="F73">
+        <v>0.1308222463267333</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B74">
+        <v>2746279.96796702</v>
+      </c>
+      <c r="C74">
+        <v>31678137.29489632</v>
+      </c>
+      <c r="D74">
+        <v>64238.4611395629</v>
+      </c>
+      <c r="E74">
+        <v>167910.9430944553</v>
+      </c>
+      <c r="F74">
+        <v>0.07977709388648606</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B75">
+        <v>4858853.66649656</v>
+      </c>
+      <c r="C75">
+        <v>39112397.9157379</v>
+      </c>
+      <c r="D75">
+        <v>83734.55533111218</v>
+      </c>
+      <c r="E75">
+        <v>184864.2752320651</v>
+      </c>
+      <c r="F75">
+        <v>0.1105006906025769</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B76">
+        <v>3876686.93944468</v>
+      </c>
+      <c r="C76">
+        <v>49555859.53718398</v>
+      </c>
+      <c r="D76">
+        <v>77512.2763382089</v>
+      </c>
+      <c r="E76">
+        <v>147251.020967401</v>
+      </c>
+      <c r="F76">
+        <v>0.07255291381518451</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B77">
+        <v>372707.92679622</v>
+      </c>
+      <c r="C77">
+        <v>3476420.91464028</v>
+      </c>
+      <c r="D77">
+        <v>16366.7543914103</v>
+      </c>
+      <c r="E77">
+        <v>59156.64566752967</v>
+      </c>
+      <c r="F77">
+        <v>0.09682916372763582</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B78">
+        <v>407540.61605569</v>
+      </c>
+      <c r="C78">
+        <v>7432212.22839794</v>
+      </c>
+      <c r="D78">
+        <v>17038.21073638308</v>
+      </c>
+      <c r="E78">
+        <v>99588.26121474188</v>
+      </c>
+      <c r="F78">
+        <v>0.05198386022386046</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B79">
+        <v>62088.54516865</v>
+      </c>
+      <c r="C79">
+        <v>806331.88816684</v>
+      </c>
+      <c r="D79">
+        <v>8623.581168393444</v>
+      </c>
+      <c r="E79">
+        <v>54054.6055814717</v>
+      </c>
+      <c r="F79">
+        <v>0.07149595148305755</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B80">
+        <v>3097644.8086326</v>
+      </c>
+      <c r="C80">
+        <v>40033571.21313638</v>
+      </c>
+      <c r="D80">
+        <v>71816.14906631529</v>
+      </c>
+      <c r="E80">
+        <v>300573.752023244</v>
+      </c>
+      <c r="F80">
+        <v>0.07181909286001052</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B81">
+        <v>2434.06457374</v>
+      </c>
+      <c r="C81">
+        <v>43243.68675082</v>
+      </c>
+      <c r="D81">
+        <v>2453.09099491235</v>
+      </c>
+      <c r="E81">
+        <v>9640.372167691208</v>
+      </c>
+      <c r="F81">
+        <v>0.05328774957516906</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B82">
+        <v>35611.57007871</v>
+      </c>
+      <c r="C82">
+        <v>367396.37668265</v>
+      </c>
+      <c r="D82">
+        <v>6086.54107429687</v>
+      </c>
+      <c r="E82">
+        <v>23175.46393305056</v>
+      </c>
+      <c r="F82">
+        <v>0.0883644363960825</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B83">
+        <v>5537761.61748754</v>
+      </c>
+      <c r="C83">
+        <v>47417714.28818519</v>
+      </c>
+      <c r="D83">
+        <v>104853.3470717926</v>
+      </c>
+      <c r="E83">
+        <v>281083.0843408498</v>
+      </c>
+      <c r="F83">
+        <v>0.1045739184244461</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B84">
+        <v>7152.87720224</v>
+      </c>
+      <c r="C84">
+        <v>75755.67617685</v>
+      </c>
+      <c r="D84">
+        <v>2293.746723766462</v>
+      </c>
+      <c r="E84">
+        <v>9265.797352573851</v>
+      </c>
+      <c r="F84">
+        <v>0.08627429753278021</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B85">
+        <v>186736.73406411</v>
+      </c>
+      <c r="C85">
+        <v>4098723.89654704</v>
+      </c>
+      <c r="D85">
+        <v>10252.72773602634</v>
+      </c>
+      <c r="E85">
+        <v>83754.54727952307</v>
+      </c>
+      <c r="F85">
+        <v>0.04357448362265773</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>534.79962469</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>431.0022657188362</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B87">
+        <v>4416.08299524</v>
+      </c>
+      <c r="C87">
+        <v>60298.80048112</v>
+      </c>
+      <c r="D87">
+        <v>1508.058351868354</v>
+      </c>
+      <c r="E87">
+        <v>5940.994330874207</v>
+      </c>
+      <c r="F87">
+        <v>0.06823906276294496</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B88">
+        <v>581942.84859032</v>
+      </c>
+      <c r="C88">
+        <v>6673319.97020852</v>
+      </c>
+      <c r="D88">
+        <v>23156.98374447736</v>
+      </c>
+      <c r="E88">
+        <v>101296.2392599404</v>
+      </c>
+      <c r="F88">
+        <v>0.08020975437064383</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B89">
+        <v>35754.16070988</v>
+      </c>
+      <c r="C89">
+        <v>404590.69315864</v>
+      </c>
+      <c r="D89">
+        <v>6390.477240333429</v>
+      </c>
+      <c r="E89">
+        <v>35610.315640414</v>
+      </c>
+      <c r="F89">
+        <v>0.08119581822240536</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B90">
+        <v>26334.38445877</v>
+      </c>
+      <c r="C90">
+        <v>401741.1950082</v>
+      </c>
+      <c r="D90">
+        <v>6184.470492965663</v>
+      </c>
+      <c r="E90">
+        <v>30410.91743963545</v>
+      </c>
+      <c r="F90">
+        <v>0.06151807232629569</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B91">
+        <v>1696110.23503477</v>
+      </c>
+      <c r="C91">
+        <v>18139642.06272992</v>
+      </c>
+      <c r="D91">
+        <v>51279.24044476238</v>
+      </c>
+      <c r="E91">
+        <v>176381.8443949721</v>
+      </c>
+      <c r="F91">
+        <v>0.08550773419498217</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B92">
+        <v>1401534.57359783</v>
+      </c>
+      <c r="C92">
+        <v>21893929.15040646</v>
+      </c>
+      <c r="D92">
+        <v>46657.45224225378</v>
+      </c>
+      <c r="E92">
+        <v>172547.7171695393</v>
+      </c>
+      <c r="F92">
+        <v>0.06016341164969598</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>26775.08099153</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>6527.39705757136</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>2434.06457374</v>
+      </c>
+      <c r="C94">
+        <v>16468.60575929</v>
+      </c>
+      <c r="D94">
+        <v>2453.09099491235</v>
+      </c>
+      <c r="E94">
+        <v>5189.326215795262</v>
+      </c>
+      <c r="F94">
+        <v>0.1287682920379129</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>21236.45933504</v>
+      </c>
+      <c r="C95">
+        <v>165557.83995666</v>
+      </c>
+      <c r="D95">
+        <v>5465.838907287558</v>
+      </c>
+      <c r="E95">
+        <v>14942.46690345785</v>
+      </c>
+      <c r="F95">
+        <v>0.1136890120071433</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>14375.11074367</v>
+      </c>
+      <c r="C96">
+        <v>201838.53672599</v>
+      </c>
+      <c r="D96">
+        <v>3412.711971343313</v>
+      </c>
+      <c r="E96">
+        <v>15228.09473461038</v>
+      </c>
+      <c r="F96">
+        <v>0.06648567706942354</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>3105752.81141687</v>
+      </c>
+      <c r="C97">
+        <v>20375832.23890115</v>
+      </c>
+      <c r="D97">
+        <v>67886.81333203166</v>
+      </c>
+      <c r="E97">
+        <v>161360.5298644421</v>
+      </c>
+      <c r="F97">
+        <v>0.132263337622296</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>2432008.80607067</v>
+      </c>
+      <c r="C98">
+        <v>27041882.04928404</v>
+      </c>
+      <c r="D98">
+        <v>63018.50047209661</v>
+      </c>
+      <c r="E98">
+        <v>172034.1375831014</v>
+      </c>
+      <c r="F98">
+        <v>0.08251400597247008</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Urbana</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>3521.24479353</v>
+      </c>
+      <c r="C99">
+        <v>29810.2472873</v>
+      </c>
+      <c r="D99">
+        <v>1711.514799676896</v>
+      </c>
+      <c r="E99">
+        <v>4578.173192011781</v>
+      </c>
+      <c r="F99">
+        <v>0.1056431792789492</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>3631.63240871</v>
+      </c>
+      <c r="C100">
+        <v>45945.42888955</v>
+      </c>
+      <c r="D100">
+        <v>1487.434271290472</v>
+      </c>
+      <c r="E100">
+        <v>5874.152379925205</v>
+      </c>
+      <c r="F100">
+        <v>0.07325227259562195</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Amarela</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>99041.83814614</v>
+      </c>
+      <c r="C101">
+        <v>1393377.32861219</v>
+      </c>
+      <c r="D101">
+        <v>7331.323859591195</v>
+      </c>
+      <c r="E101">
+        <v>33985.6702426862</v>
+      </c>
+      <c r="F101">
+        <v>0.06636328476085433</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>87694.89591797</v>
+      </c>
+      <c r="C102">
+        <v>2705346.56793485</v>
+      </c>
+      <c r="D102">
+        <v>6296.670605963446</v>
+      </c>
+      <c r="E102">
+        <v>56628.78958789522</v>
+      </c>
+      <c r="F102">
+        <v>0.03139763481957069</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Branca</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>0</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>534.79962469</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>431.0022657188362</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Ignorado</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B105">
+        <v>2473.15716258</v>
+      </c>
+      <c r="C105">
+        <v>16168.61414455</v>
+      </c>
+      <c r="D105">
+        <v>1408.281951658327</v>
+      </c>
+      <c r="E105">
+        <v>2747.723956875298</v>
+      </c>
+      <c r="F105">
+        <v>0.132667498266867</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>1942.92583266</v>
+      </c>
+      <c r="C106">
+        <v>44130.18633657</v>
+      </c>
+      <c r="D106">
+        <v>661.2477470014595</v>
+      </c>
+      <c r="E106">
+        <v>4795.476146524851</v>
+      </c>
+      <c r="F106">
+        <v>0.0421704925320323</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Masculino</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Indígena</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>267671.68669397</v>
+      </c>
+      <c r="C107">
+        <v>2037064.72459624</v>
+      </c>
+      <c r="D107">
+        <v>13416.59358551995</v>
+      </c>
+      <c r="E107">
+        <v>40385.99303459516</v>
+      </c>
+      <c r="F107">
+        <v>0.1161398263952125</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Feminino</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Preto ou pardo</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="B108">
         <v>314271.16189635</v>
       </c>
-      <c r="C66">
+      <c r="C108">
         <v>4636255.24561228</v>
       </c>
-      <c r="D66">
+      <c r="D108">
         <v>14888.2919176201</v>
       </c>
-      <c r="E66">
+      <c r="E108">
         <v>73606.80568967448</v>
       </c>
-      <c r="F66">
+      <c r="F108">
         <v>0.06348237258560713</v>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>Masculino</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>Preto ou pardo</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>Rural</t>
         </is>
